--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>name</t>
   </si>
@@ -152,13 +152,10 @@
     <t>试题名称</t>
   </si>
   <si>
-    <t>正确答案</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>武器</t>
+    <t>正确答案,可多选</t>
+  </si>
+  <si>
+    <t>答案选项</t>
   </si>
   <si>
     <t>int</t>
@@ -167,7 +164,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>bool</t>
+    <t>{int Id;string answer}[]</t>
   </si>
   <si>
     <t>Id</t>
@@ -179,10 +176,7 @@
     <t>Answer</t>
   </si>
   <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>Weapon</t>
+    <t>Option</t>
   </si>
   <si>
     <t>server/client</t>
@@ -194,19 +188,13 @@
     <t>信息系统的()是指系统可能存在着丧失结构、功能、秩序的特性。</t>
   </si>
   <si>
-    <t>1001</t>
+    <t>0;可用性,1;开放性,2;脆弱性,3;稳定性</t>
   </si>
   <si>
     <t>()可以将计算机的服务器、网络、内存及存储等实体资源，抽象、封装、规范化并呈现出来，打破实体结构间不可切割的障 碍，使用户更好地使用这些资源。</t>
   </si>
   <si>
-    <t>1002</t>
-  </si>
-  <si>
     <t>构建国家综合信息基础设施的内容不包含()。</t>
-  </si>
-  <si>
-    <t>1003,1004,1005</t>
   </si>
 </sst>
 </file>
@@ -214,7 +202,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,7 +212,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -232,6 +220,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -282,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -306,7 +300,7 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -314,14 +308,11 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,7 +616,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -633,12 +624,11 @@
   <cols>
     <col min="1" max="1" style="12" width="15.147857142857141" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="7" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="36.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
       <c r="A1" s="9" t="s">
         <v>23</v>
       </c>
@@ -648,113 +638,92 @@
       <c r="C1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+      <c r="A2" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="9" t="s">
+      <c r="B2" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+      <c r="A3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="9" t="s">
+      <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="9" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+      <c r="A4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="C4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" s="10">
         <v>0</v>
       </c>
-      <c r="D5" s="10">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="D5" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="10">
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="10">
         <v>1</v>
       </c>
-      <c r="D6" s="10">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="10">
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C7" s="11">
         <v>1</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="4">
         <v>0</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangjian/workspace/temp/software_exam/software_exam/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2C344F-18A2-C14F-87F4-7069D68B2796}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="英雄|Quiz"/>
-    <sheet r:id="rId2" sheetId="2" name="全局参数|Global"/>
+    <sheet name="英雄|Quiz" sheetId="1" r:id="rId1"/>
+    <sheet name="全局参数|Global" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="145">
   <si>
     <t>name</t>
   </si>
@@ -38,9 +44,6 @@
     <t>7</t>
   </si>
   <si>
-    <r>
-      <t/>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -68,9 +71,6 @@
   </si>
   <si>
     <r>
-      <t/>
-    </r>
-    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
@@ -93,9 +93,6 @@
     <t>1</t>
   </si>
   <si>
-    <r>
-      <t/>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -152,61 +149,412 @@
     <t>试题名称</t>
   </si>
   <si>
+    <t>答案选项</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>server/client</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>信息系统的()是指系统可能存在着丧失结构、功能、秩序的特性。</t>
+  </si>
+  <si>
+    <t>()可以将计算机的服务器、网络、内存及存储等实体资源，抽象、封装、规范化并呈现出来，打破实体结构间不可切割的障 碍，使用户更好地使用这些资源。</t>
+  </si>
+  <si>
+    <t>构建国家综合信息基础设施的内容不包含()。</t>
+  </si>
+  <si>
+    <t>answer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>question</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>option</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A,B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>正确答案,可多选</t>
-  </si>
-  <si>
-    <t>答案选项</t>
-  </si>
-  <si>
-    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.baidu.com/image.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题图片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{string key;string content}[]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>{int Id;string answer}[]</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Answer</t>
-  </si>
-  <si>
-    <t>Option</t>
-  </si>
-  <si>
-    <t>server/client</t>
-  </si>
-  <si>
-    <t>client</t>
-  </si>
-  <si>
-    <t>信息系统的()是指系统可能存在着丧失结构、功能、秩序的特性。</t>
-  </si>
-  <si>
-    <t>0;可用性,1;开放性,2;脆弱性,3;稳定性</t>
-  </si>
-  <si>
-    <t>()可以将计算机的服务器、网络、内存及存储等实体资源，抽象、封装、规范化并呈现出来，打破实体结构间不可切割的障 碍，使用户更好地使用这些资源。</t>
-  </si>
-  <si>
-    <t>构建国家综合信息基础设施的内容不包含()。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zj_202005_01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zj_202005_02</t>
+  </si>
+  <si>
+    <t>zj_202005_03</t>
+  </si>
+  <si>
+    <t>zj_202005_04</t>
+  </si>
+  <si>
+    <t>zj_202005_05</t>
+  </si>
+  <si>
+    <t>zj_202005_06</t>
+  </si>
+  <si>
+    <t>zj_202005_07</t>
+  </si>
+  <si>
+    <t>zj_202005_08</t>
+  </si>
+  <si>
+    <t>zj_202005_09</t>
+  </si>
+  <si>
+    <t>zj_202005_10</t>
+  </si>
+  <si>
+    <t>zj_202005_11</t>
+  </si>
+  <si>
+    <t>zj_202005_12</t>
+  </si>
+  <si>
+    <t>zj_202005_13</t>
+  </si>
+  <si>
+    <t>zj_202005_14</t>
+  </si>
+  <si>
+    <t>zj_202005_15</t>
+  </si>
+  <si>
+    <t>zj_202005_16</t>
+  </si>
+  <si>
+    <t>zj_202005_17</t>
+  </si>
+  <si>
+    <t>zj_202005_18</t>
+  </si>
+  <si>
+    <t>zj_202005_19</t>
+  </si>
+  <si>
+    <t>zj_202005_20</t>
+  </si>
+  <si>
+    <t>zj_202005_21</t>
+  </si>
+  <si>
+    <t>zj_202005_22</t>
+  </si>
+  <si>
+    <t>zj_202005_23</t>
+  </si>
+  <si>
+    <t>zj_202005_24</t>
+  </si>
+  <si>
+    <t>zj_202005_25</t>
+  </si>
+  <si>
+    <t>zj_202005_26</t>
+  </si>
+  <si>
+    <t>zj_202005_27</t>
+  </si>
+  <si>
+    <t>zj_202005_28</t>
+  </si>
+  <si>
+    <t>zj_202005_29</t>
+  </si>
+  <si>
+    <t>zj_202005_30</t>
+  </si>
+  <si>
+    <t>zj_202005_31</t>
+  </si>
+  <si>
+    <t>zj_202005_32</t>
+  </si>
+  <si>
+    <t>zj_202005_33</t>
+  </si>
+  <si>
+    <t>zj_202005_34</t>
+  </si>
+  <si>
+    <t>zj_202005_35</t>
+  </si>
+  <si>
+    <t>zj_202005_36</t>
+  </si>
+  <si>
+    <t>zj_202005_37</t>
+  </si>
+  <si>
+    <t>zj_202005_38</t>
+  </si>
+  <si>
+    <t>zj_202005_39</t>
+  </si>
+  <si>
+    <t>zj_202005_40</t>
+  </si>
+  <si>
+    <t>zj_202005_41</t>
+  </si>
+  <si>
+    <t>zj_202005_42</t>
+  </si>
+  <si>
+    <t>zj_202005_43</t>
+  </si>
+  <si>
+    <t>zj_202005_44</t>
+  </si>
+  <si>
+    <t>zj_202005_45</t>
+  </si>
+  <si>
+    <t>zj_202005_46</t>
+  </si>
+  <si>
+    <t>zj_202005_47</t>
+  </si>
+  <si>
+    <t>zj_202005_48</t>
+  </si>
+  <si>
+    <t>zj_202005_49</t>
+  </si>
+  <si>
+    <t>zj_202005_50</t>
+  </si>
+  <si>
+    <t>zj_202005_51</t>
+  </si>
+  <si>
+    <t>zj_202005_52</t>
+  </si>
+  <si>
+    <t>zj_202005_53</t>
+  </si>
+  <si>
+    <t>zj_202005_54</t>
+  </si>
+  <si>
+    <t>zj_202005_55</t>
+  </si>
+  <si>
+    <t>zj_202005_56</t>
+  </si>
+  <si>
+    <t>zj_202005_57</t>
+  </si>
+  <si>
+    <t>zj_202005_58</t>
+  </si>
+  <si>
+    <t>zj_202005_59</t>
+  </si>
+  <si>
+    <t>zj_202005_60</t>
+  </si>
+  <si>
+    <t>zj_202005_61</t>
+  </si>
+  <si>
+    <t>zj_202005_62</t>
+  </si>
+  <si>
+    <t>zj_202005_63</t>
+  </si>
+  <si>
+    <t>zj_202005_64</t>
+  </si>
+  <si>
+    <t>zj_202005_65</t>
+  </si>
+  <si>
+    <t>zj_202005_66</t>
+  </si>
+  <si>
+    <t>zj_202005_67</t>
+  </si>
+  <si>
+    <t>zj_202005_68</t>
+  </si>
+  <si>
+    <t>zj_202005_69</t>
+  </si>
+  <si>
+    <t>zj_202005_70</t>
+  </si>
+  <si>
+    <t>zj_202005_71</t>
+  </si>
+  <si>
+    <t>zj_202005_72</t>
+  </si>
+  <si>
+    <t>zj_202005_73</t>
+  </si>
+  <si>
+    <t>zj_202005_74</t>
+  </si>
+  <si>
+    <t>zj_202005_75</t>
+  </si>
+  <si>
+    <t>A;可用性,B;开放性,C;脆弱性,D;稳定性</t>
+  </si>
+  <si>
+    <t>A;虚拟化技术,B;人工智能技术,C;传感器技术,D;区块链技术</t>
+  </si>
+  <si>
+    <t>A;加快宽带网络优化升级和区域协调发展,B;大力提高教育信息化水平,C;建设安全可靠的信息应用基础设施,D;加快推进三网融合</t>
+  </si>
+  <si>
+    <t xml:space="preserve">关于我国企业信息化发展战略要点的描述，不正确的是:()。 </t>
+  </si>
+  <si>
+    <t>A;注重以工业化带动信息化,B;充分发挥政府的引导作用,C;高度重视信息安全,D;“因地制宜”推进企业信息化</t>
+  </si>
+  <si>
+    <t>通过网络把实体店的团购、优惠信息推送给互联网用户，从而将这些用户转换为实体店的客户，这种模式称为()。</t>
+  </si>
+  <si>
+    <t>A;B2B,B;C2C,C;B2C,D;O2O</t>
+  </si>
+  <si>
+    <t>实施()是企业落实《中国制造2025》战略规划的重要途径。</t>
+  </si>
+  <si>
+    <t>A;大数据,B;云计算,C;两化深度融合,D;区块链</t>
+  </si>
+  <si>
+    <t>()是从特定形式的数据中，集中提炼知识的过程。</t>
+  </si>
+  <si>
+    <t>A;数据分析,B;数据抽取,C;数据转换,D;数据挖掘</t>
+  </si>
+  <si>
+    <t>()不属于人工智能的典型应用。</t>
+  </si>
+  <si>
+    <t>A;自动驾驶,B;送餐机器人,C;非接触测温仪,D;无人超市</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数据可视化技术主要应用于大数据处理的()环节。 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A;知识展现,B;数据分析,C;计算处理,D;存储管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITSS(信息技术服务标准)定义的IT服务生命周期包括()。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A;计划、执行、检查、改进,B;规划设计、资源配置、服务运营、持续改进、监督管理,C;服务战略、规划设计、部署实施、服务运营、持续改进,D;规划设计、部署实施、服务运营、持续改进、监督管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联章节</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>relation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一章</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -223,10 +571,26 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <color theme="10"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -238,7 +602,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFd9d9d9"/>
+        <fgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -252,16 +616,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -273,56 +637,81 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -333,10 +722,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -374,71 +763,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -466,7 +855,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -489,11 +878,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -502,13 +891,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -518,7 +907,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -527,7 +916,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -536,7 +925,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -544,10 +933,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -612,127 +1001,923 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" style="12" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="36.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="2" width="15.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5" style="17" customWidth="1"/>
+    <col min="4" max="4" width="36" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="18.5" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
+    <row r="1" spans="1:8" ht="21.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A2" s="9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
-      <c r="A2" s="9" t="s">
+      <c r="B2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
-      <c r="A3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
-      <c r="A4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+      <c r="D4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="31">
       <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+      <c r="B5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="46">
       <c r="A6" s="10">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="10">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+      <c r="B6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="10">
         <v>3</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="46">
+      <c r="A8" s="10">
+        <v>4</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="31">
+      <c r="A9" s="10">
+        <v>5</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="31">
+      <c r="A10" s="10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="31">
+      <c r="A11" s="10">
+        <v>7</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="31">
+      <c r="A12" s="10">
+        <v>8</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="31">
+      <c r="A13" s="10">
+        <v>9</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="76">
+      <c r="A14" s="10">
+        <v>10</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15">
+      <c r="A15" s="10">
+        <v>11</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15">
+      <c r="A16" s="10">
+        <v>12</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15">
+      <c r="A17" s="10">
+        <v>13</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15">
+      <c r="A18" s="10">
+        <v>14</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15">
+      <c r="A19" s="10">
+        <v>15</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15">
+      <c r="A20" s="10">
+        <v>16</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15">
+      <c r="A21" s="10">
+        <v>17</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15">
+      <c r="A22" s="10">
+        <v>18</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15">
+      <c r="A23" s="10">
+        <v>19</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15">
+      <c r="A24" s="10">
+        <v>20</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15">
+      <c r="A25" s="10">
+        <v>21</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15">
+      <c r="A26" s="10">
+        <v>22</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15">
+      <c r="A27" s="10">
+        <v>23</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15">
+      <c r="A28" s="10">
+        <v>24</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15">
+      <c r="A29" s="10">
+        <v>25</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15">
+      <c r="A30" s="10">
+        <v>26</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15">
+      <c r="A31" s="10">
+        <v>27</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15">
+      <c r="A32" s="10">
+        <v>28</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15">
+      <c r="A33" s="10">
+        <v>29</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15">
+      <c r="A34" s="10">
+        <v>30</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15">
+      <c r="A35" s="10">
+        <v>31</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15">
+      <c r="A36" s="10">
+        <v>32</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15">
+      <c r="A37" s="10">
+        <v>33</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15">
+      <c r="A38" s="10">
+        <v>34</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15">
+      <c r="A39" s="10">
+        <v>35</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15">
+      <c r="A40" s="10">
+        <v>36</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15">
+      <c r="A41" s="10">
+        <v>37</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15">
+      <c r="A42" s="10">
+        <v>38</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15">
+      <c r="A43" s="10">
         <v>39</v>
       </c>
-      <c r="C7" s="11">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
+      <c r="B43" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15">
+      <c r="A44" s="10">
+        <v>40</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15">
+      <c r="A45" s="10">
+        <v>41</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15">
+      <c r="A46" s="10">
+        <v>42</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15">
+      <c r="A47" s="10">
+        <v>43</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15">
+      <c r="A48" s="10">
+        <v>44</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15">
+      <c r="A49" s="10">
+        <v>45</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15">
+      <c r="A50" s="10">
+        <v>46</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15">
+      <c r="A51" s="10">
+        <v>47</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15">
+      <c r="A52" s="10">
+        <v>48</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15">
+      <c r="A53" s="10">
+        <v>49</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15">
+      <c r="A54" s="10">
+        <v>50</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15">
+      <c r="A55" s="10">
+        <v>51</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15">
+      <c r="A56" s="10">
+        <v>52</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15">
+      <c r="A57" s="10">
+        <v>53</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15">
+      <c r="A58" s="10">
+        <v>54</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15">
+      <c r="A59" s="10">
+        <v>55</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15">
+      <c r="A60" s="10">
+        <v>56</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15">
+      <c r="A61" s="10">
+        <v>57</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15">
+      <c r="A62" s="10">
+        <v>58</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15">
+      <c r="A63" s="10">
+        <v>59</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15">
+      <c r="A64" s="10">
+        <v>60</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15">
+      <c r="A65" s="10">
+        <v>61</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15">
+      <c r="A66" s="10">
+        <v>62</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15">
+      <c r="A67" s="10">
+        <v>63</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15">
+      <c r="A68" s="10">
+        <v>64</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15">
+      <c r="A69" s="10">
+        <v>65</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15">
+      <c r="A70" s="10">
+        <v>66</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15">
+      <c r="A71" s="10">
+        <v>67</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15">
+      <c r="A72" s="10">
+        <v>68</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15">
+      <c r="A73" s="10">
+        <v>69</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15">
+      <c r="A74" s="10">
+        <v>70</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15">
+      <c r="A75" s="10">
+        <v>71</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15">
+      <c r="A76" s="10">
+        <v>72</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15">
+      <c r="A77" s="10">
+        <v>73</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15">
+      <c r="A78" s="10">
+        <v>74</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15">
+      <c r="A79" s="10">
+        <v>75</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15">
+      <c r="B80" s="10"/>
+    </row>
+    <row r="81" spans="2:2" ht="15">
+      <c r="B81" s="10"/>
+    </row>
+    <row r="82" spans="2:2" ht="15">
+      <c r="B82" s="10"/>
+    </row>
+    <row r="83" spans="2:2" ht="15">
+      <c r="B83" s="10"/>
+    </row>
+    <row r="84" spans="2:2" ht="15">
+      <c r="B84" s="10"/>
+    </row>
+    <row r="85" spans="2:2" ht="15">
+      <c r="B85" s="10"/>
+    </row>
+    <row r="86" spans="2:2" ht="15">
+      <c r="B86" s="10"/>
+    </row>
+    <row r="87" spans="2:2" ht="15">
+      <c r="B87" s="10"/>
+    </row>
+    <row r="88" spans="2:2" ht="15">
+      <c r="B88" s="10"/>
+    </row>
+    <row r="89" spans="2:2" ht="15">
+      <c r="B89" s="10"/>
+    </row>
+    <row r="90" spans="2:2" ht="15">
+      <c r="B90" s="10"/>
+    </row>
+    <row r="91" spans="2:2" ht="15">
+      <c r="B91" s="10"/>
+    </row>
+    <row r="92" spans="2:2" ht="15">
+      <c r="B92" s="10"/>
+    </row>
+    <row r="93" spans="2:2" ht="15">
+      <c r="B93" s="10"/>
+    </row>
+    <row r="94" spans="2:2" ht="15">
+      <c r="B94" s="10"/>
+    </row>
+    <row r="95" spans="2:2" ht="15">
+      <c r="B95" s="10"/>
+    </row>
+    <row r="96" spans="2:2" ht="15">
+      <c r="B96" s="10"/>
+    </row>
+    <row r="97" spans="2:2" ht="15">
+      <c r="B97" s="10"/>
+    </row>
+    <row r="98" spans="2:2" ht="15">
+      <c r="B98" s="10"/>
+    </row>
+    <row r="99" spans="2:2" ht="15">
+      <c r="B99" s="10"/>
+    </row>
+    <row r="100" spans="2:2" ht="15">
+      <c r="B100" s="10"/>
+    </row>
+    <row r="101" spans="2:2" ht="15">
+      <c r="B101" s="10"/>
+    </row>
+    <row r="102" spans="2:2" ht="15">
+      <c r="B102" s="10"/>
+    </row>
+    <row r="103" spans="2:2" ht="15">
+      <c r="B103" s="10"/>
+    </row>
+    <row r="104" spans="2:2" ht="15">
+      <c r="B104" s="10"/>
+    </row>
+    <row r="105" spans="2:2" ht="15">
+      <c r="B105" s="10"/>
+    </row>
+    <row r="106" spans="2:2" ht="15">
+      <c r="B106" s="10"/>
+    </row>
+    <row r="107" spans="2:2" ht="15">
+      <c r="B107" s="10"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{EFCE7521-80D1-784E-BC1D-C638E0D4E81D}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{4B0F5F86-383D-0041-A796-CF0DB376C1CB}"/>
+    <hyperlink ref="E7" r:id="rId3" xr:uid="{A9686147-3D3F-C34D-A00A-D90F0A4A6C88}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -740,16 +1925,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" style="7" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="19.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="33.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row r="1" spans="1:5" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -766,7 +1951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
+    <row r="2" spans="1:5" ht="21.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -783,7 +1968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75">
+    <row r="3" spans="1:5" ht="21.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -800,7 +1985,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+    <row r="4" spans="1:5" ht="20.25" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -817,7 +2002,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+    <row r="5" spans="1:5" ht="20.25" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
@@ -835,6 +2020,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangjian/workspace/temp/software_exam/software_exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2C344F-18A2-C14F-87F4-7069D68B2796}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB63A16F-E9BB-C646-A7D7-FE4B375B30E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="英雄|Quiz" sheetId="1" r:id="rId1"/>
-    <sheet name="全局参数|Global" sheetId="2" r:id="rId2"/>
+    <sheet name="所有的|confg" sheetId="3" r:id="rId1"/>
+    <sheet name="2020上选择|zj_xz_202005" sheetId="1" r:id="rId2"/>
+    <sheet name="全局参数|Global" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="202">
   <si>
     <t>name</t>
   </si>
@@ -531,8 +532,79 @@
   </si>
   <si>
     <r>
-      <t>A;</t>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>考试</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>key</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>考试名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zj_xz_202005</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.baidu.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zj_xz_202011</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年下半年中级选择题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间和描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -541,16 +613,175 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>第一章</t>
+      <t>考试时长</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(分钟)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dyz;第一章</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年系统集成项目管理工程师真题与答案(上午综合知识)</t>
+  </si>
+  <si>
+    <t>(考试时间 9:00~11:30 共150分钟)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息系统开发过程中，()适合在无法全面准确提出用户需求的情况下，通过反复修改，动态响应用户需求来实现用户的最终需求。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A;结构化方法,B;原型法,C;瀑布法,D;面向过程方法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件质量管理过程中，( )的目的是确保构造了正确的产品，即产品满足其特定的目的。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A;软件验证,B;软件确认,C;管理评审,D;软件审计</t>
+  </si>
+  <si>
+    <t>( )是现实世界中实体的形式化描述，将实体的属性(数据)和操作(函数)封装在一起。</t>
+  </si>
+  <si>
+    <t>A;服务,B;类,C;接口,D;消息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ODBC和JDBC是典型的( )。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A;分布式对象中间件 ,B;事务中间件 ,C;面向消息中间件 ,D;数据库访问中间件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于数据库和数据仓库的描述，正确的是:( )。</t>
+  </si>
+  <si>
+    <t>A;与数据库相比，数据仓库的数据相对稳定 ,B;与数据仓库相比，数据库的数据相对冗余 ,C;与数据库相比，数据仓库的主要任务是实时业务处理 ,D;与数据仓库相比，数据库的主要任务是支持管理决策</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaEE应用服务器运行环境不包括( )。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A;容器,B;编译器,C;组件,D;服务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">在OSI七层协议中，( )的主要功能是路由选择。 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A;物理层,B;数据链路层,C;传输层,D;网络层</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>( )不属于网络链路传输控制技术。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A;SAN,B;令牌,C;FDDI,D;ISDN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过控制网络上的其他计算机，对目标主机所在网络服务不断进行干扰，改变其正常的作业流程，执行无关程序使系统响应变慢甚至瘫痪，这种行为属于( )。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A;系统漏洞,B;网络监听,C;拒绝服务攻击,D;种植病毒</t>
+  </si>
+  <si>
+    <t>( )可以阻止非信任地址的访问，但无法控制内部网络之间的违规行为。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A;防火墙,B;扫描器,C;防毒软件,D;安全审计系统</t>
+  </si>
+  <si>
+    <t>A;了解客户的业务需求 ,B;组建一个和谐的团队 ,C;注重客户和用户参与 ,D;精通项目相关的技术</t>
+  </si>
+  <si>
+    <t>A;可以为某个项目设立一个PMO ,B;支持型PMO通过各种手段要求项目服从PMO的管理策略 ,C;PMO不受组织结构的影响,可以存在于任何组织结构中 ,D;PMO可以为所有项目进行集中的配置管理</t>
+  </si>
+  <si>
+    <t>A;5个项目过程组具有明确的依存关系 ,B;过程组不是项目的阶段,但与项目阶段存在一定的关系 ,C;一般来说,监督和控制过程组花费项目预算最多 ,D;启动过程组包括制定项目章程和识别干系人两个过程</t>
+  </si>
+  <si>
+    <t>A;项目建议书不能和可行性研究报告合并 ,B;项目建议书是国家或上级主管部门选择项目的依据 ,C;项目建议书是对拟建项目提出的框架性的总体设想 ,D;项目建议书内容可以进行扩充和裁剪</t>
+  </si>
+  <si>
+    <t>A;项目建设的必要性 ,B;总体设计方案,C;项目实施进度,D;项目绩效数据</t>
+  </si>
+  <si>
+    <t>A;机会可行性研究,B;详细可行性研究,C;初步可行性研究,D;研究报告的编写</t>
+  </si>
+  <si>
+    <t>A;DaaS,B;PaaS,C;SaaS,D;IaaS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A;人机交互,B;计算机视觉,C;机器学习,D;虚拟现实</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A;项目具有完整生命周期和明确起始日期 ,B;项目具有临时性、独特性、渐进明细的特点 ,C;项目目标可分为过程性目标和成果性目标 ,D;项目通常是实现组织战略计划的一种手段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A;物联网中的“网”是指物理上独立于互联网的网络 ,B;物联网中的“物”指客观世界的物品，包括人，商品，地理环境等 ,C;二维码技术是物联网架构中的应用层技术 ,D;应用软件是物联网产业链中需求总量最大和最基础的环节</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>云计算中心提供的虚拟主机和存储服务属于( )。</t>
+  </si>
+  <si>
+    <t>()研究计算机怎样模拟或实现人类的学习行为，以获取新的知识或技能，重新组织已有的知识使之不断改善自身的性能，是 人工智能技术的核心。</t>
+  </si>
+  <si>
+    <t>关于物联网的描述，正确的是:()。</t>
+  </si>
+  <si>
+    <t>关于项目目标和项目特点的描述，不正确的是()。</t>
+  </si>
+  <si>
+    <t>作为一个优秀项目经理，不需要()。</t>
+  </si>
+  <si>
+    <t>关于项目管理办公室(PMO)的描述,不正确的是:()。</t>
+  </si>
+  <si>
+    <t>关于项目管理过程组的描述,不正确的是:()。</t>
+  </si>
+  <si>
+    <t>关于项目建议书的描述,不正确的是:()。</t>
+  </si>
+  <si>
+    <t>项目可行性研究报告不包含:()。</t>
+  </si>
+  <si>
+    <t>()需要对项目的技术、经济、环境及社会影响等进行深入调查研究，是一项费时费力且需要一定资金支持的工作。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -589,6 +820,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -641,7 +879,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -698,6 +936,21 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1001,14 +1254,217 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2216CC-14DD-E84E-A644-9ABE157377EF}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="6" width="21.83203125" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16">
+      <c r="A1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="9"/>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" ht="16">
+      <c r="A2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" ht="16">
+      <c r="A3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" ht="16">
+      <c r="A4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:9" ht="61">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="23">
+        <v>150</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="19">
+        <v>1</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" ht="46">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="23">
+        <v>150</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" s="19">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" ht="15">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" ht="15">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{1E5E24BD-3BDB-F244-BD79-B84E88D20A9E}"/>
+    <hyperlink ref="F6" r:id="rId2" xr:uid="{2F58C059-EC2D-7346-B57C-1DC7C5D42922}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1143,12 +1599,10 @@
       <c r="F5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="G5" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" ht="46">
       <c r="A6" s="10">
@@ -1172,9 +1626,7 @@
       <c r="G6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>39</v>
-      </c>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="10">
@@ -1198,9 +1650,7 @@
       <c r="G7" s="10">
         <v>1</v>
       </c>
-      <c r="H7" s="10">
-        <v>1</v>
-      </c>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" ht="46">
       <c r="A8" s="10">
@@ -1300,167 +1750,287 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15">
+    <row r="15" spans="1:8" ht="46">
       <c r="A15" s="10">
         <v>11</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="15">
+      <c r="C15" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="31">
       <c r="A16" s="10">
         <v>12</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15">
+      <c r="C16" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="31">
       <c r="A17" s="10">
         <v>13</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15">
+      <c r="C17" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="31">
       <c r="A18" s="10">
         <v>14</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15">
+      <c r="C18" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="76">
       <c r="A19" s="10">
         <v>15</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15">
+      <c r="C19" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16">
       <c r="A20" s="10">
         <v>16</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15">
+      <c r="C20" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="31">
       <c r="A21" s="10">
         <v>17</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="15">
+      <c r="C21" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16">
       <c r="A22" s="10">
         <v>18</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="15">
+      <c r="C22" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="46">
       <c r="A23" s="10">
         <v>19</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15">
+      <c r="C23" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="31">
       <c r="A24" s="10">
         <v>20</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="15">
+      <c r="C24" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16">
       <c r="A25" s="10">
         <v>21</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="15">
+      <c r="C25" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="31">
       <c r="A26" s="10">
         <v>22</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="15">
+      <c r="C26" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="91">
       <c r="A27" s="10">
         <v>23</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="15">
+      <c r="C27" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="76">
       <c r="A28" s="10">
         <v>24</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="15">
+      <c r="C28" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="46">
       <c r="A29" s="10">
         <v>25</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="15">
+      <c r="C29" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="76">
       <c r="A30" s="10">
         <v>26</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="15">
+      <c r="C30" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="76">
       <c r="A31" s="10">
         <v>27</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="15">
+      <c r="C31" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="76">
       <c r="A32" s="10">
         <v>28</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="15">
+      <c r="C32" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="31">
       <c r="A33" s="10">
         <v>29</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="15">
+      <c r="C33" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="31">
       <c r="A34" s="10">
         <v>30</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="15">
+      <c r="C34" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15">
       <c r="A35" s="10">
         <v>31</v>
       </c>
@@ -1468,7 +2038,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15">
+    <row r="36" spans="1:4" ht="15">
       <c r="A36" s="10">
         <v>32</v>
       </c>
@@ -1476,7 +2046,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15">
+    <row r="37" spans="1:4" ht="15">
       <c r="A37" s="10">
         <v>33</v>
       </c>
@@ -1484,7 +2054,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15">
+    <row r="38" spans="1:4" ht="15">
       <c r="A38" s="10">
         <v>34</v>
       </c>
@@ -1492,7 +2062,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15">
+    <row r="39" spans="1:4" ht="15">
       <c r="A39" s="10">
         <v>35</v>
       </c>
@@ -1500,7 +2070,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15">
+    <row r="40" spans="1:4" ht="15">
       <c r="A40" s="10">
         <v>36</v>
       </c>
@@ -1508,7 +2078,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15">
+    <row r="41" spans="1:4" ht="15">
       <c r="A41" s="10">
         <v>37</v>
       </c>
@@ -1516,7 +2086,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15">
+    <row r="42" spans="1:4" ht="15">
       <c r="A42" s="10">
         <v>38</v>
       </c>
@@ -1524,7 +2094,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15">
+    <row r="43" spans="1:4" ht="15">
       <c r="A43" s="10">
         <v>39</v>
       </c>
@@ -1532,7 +2102,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15">
+    <row r="44" spans="1:4" ht="15">
       <c r="A44" s="10">
         <v>40</v>
       </c>
@@ -1540,7 +2110,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15">
+    <row r="45" spans="1:4" ht="15">
       <c r="A45" s="10">
         <v>41</v>
       </c>
@@ -1548,7 +2118,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15">
+    <row r="46" spans="1:4" ht="15">
       <c r="A46" s="10">
         <v>42</v>
       </c>
@@ -1556,7 +2126,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15">
+    <row r="47" spans="1:4" ht="15">
       <c r="A47" s="10">
         <v>43</v>
       </c>
@@ -1564,7 +2134,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15">
+    <row r="48" spans="1:4" ht="15">
       <c r="A48" s="10">
         <v>44</v>
       </c>
@@ -1916,7 +2486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>

--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangjian/workspace/temp/software_exam/software_exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB63A16F-E9BB-C646-A7D7-FE4B375B30E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93493312-95EE-BC46-82B8-87AD7E13CD25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="所有的|confg" sheetId="3" r:id="rId1"/>
+    <sheet name="所有的|config" sheetId="3" r:id="rId1"/>
     <sheet name="2020上选择|zj_xz_202005" sheetId="1" r:id="rId2"/>
     <sheet name="全局参数|Global" sheetId="2" r:id="rId3"/>
   </sheets>
@@ -1257,7 +1257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2216CC-14DD-E84E-A644-9ABE157377EF}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1463,7 +1463,7 @@
   </sheetPr>
   <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -1904,7 +1904,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="31">
+    <row r="26" spans="1:4" ht="46">
       <c r="A26" s="10">
         <v>22</v>
       </c>

--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangjian/workspace/temp/software_exam/software_exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93493312-95EE-BC46-82B8-87AD7E13CD25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E22013-A4D7-214C-8772-1EB7E2B7C23D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1258,7 +1258,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>

--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="所有的|config"/>
@@ -699,7 +699,7 @@
     <t>version</t>
   </si>
   <si>
-    <t>zj_xz_202005_s</t>
+    <t>zj_xz_202005</t>
   </si>
   <si>
     <t>2020年系统集成项目管理工程师真题与答案(上午综合知识)</t>
@@ -708,16 +708,16 @@
     <t>(考试时间 9:00~11:30 共150分钟)</t>
   </si>
   <si>
-    <t>https://yangjian2014.github.io/software_exam/zj_xz_202005_s.json</t>
-  </si>
-  <si>
-    <t>zj_xz_202011_s</t>
+    <t>https://yangjian2014.github.io/software_exam/zj_xz_202005s.json</t>
+  </si>
+  <si>
+    <t>zj_xz_202011</t>
   </si>
   <si>
     <t>2020年下半年中级选择题</t>
   </si>
   <si>
-    <t>https://yangjian2014.github.io/software_exam/zj_xz_202011_s.json</t>
+    <t>https://yangjian2014.github.io/software_exam/zj_xz_202011s.json</t>
   </si>
 </sst>
 </file>
@@ -1223,12 +1223,12 @@
   </sheetPr>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="31" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="21" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="21" width="19.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="32" width="16.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="33" width="18.005" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="34" width="21.862142857142857" customWidth="1" bestFit="1"/>
@@ -1422,7 +1422,7 @@
   </sheetPr>
   <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="所有的|config"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="201">
   <si>
     <t>name</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>option</t>
+  </si>
+  <si>
+    <t>imageOption</t>
   </si>
   <si>
     <t>image</t>
@@ -725,7 +728,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -756,12 +759,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -812,7 +809,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="32">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -865,20 +862,14 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -903,12 +894,6 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1223,19 +1208,19 @@
   </sheetPr>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="31" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="21" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="32" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="33" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="34" width="21.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="32" width="21.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="35" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="31" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="31" width="22.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="18" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="19" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="20" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="29" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="30" width="21.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="20" width="21.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="31" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="18" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="18" width="22.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
@@ -1243,25 +1228,25 @@
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="E1" s="23" t="s">
         <v>187</v>
       </c>
+      <c r="E1" s="21" t="s">
+        <v>188</v>
+      </c>
       <c r="F1" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="G1" s="24" t="s">
         <v>189</v>
       </c>
+      <c r="G1" s="22" t="s">
+        <v>190</v>
+      </c>
       <c r="H1" s="9"/>
-      <c r="I1" s="25"/>
+      <c r="I1" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="9" t="s">
@@ -1276,13 +1261,13 @@
       <c r="D2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="21" t="s">
         <v>31</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="21" t="s">
         <v>31</v>
       </c>
       <c r="H2" s="9"/>
@@ -1299,41 +1284,41 @@
         <v>0</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="E3" s="23" t="s">
         <v>191</v>
       </c>
+      <c r="E3" s="21" t="s">
+        <v>192</v>
+      </c>
       <c r="F3" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="G3" s="23" t="s">
         <v>192</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>193</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>43</v>
+      <c r="E4" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -1343,21 +1328,21 @@
         <v>1</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="E5" s="26">
+        <v>196</v>
+      </c>
+      <c r="E5" s="24">
         <v>150</v>
       </c>
-      <c r="F5" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="G5" s="28">
+      <c r="F5" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="G5" s="26">
         <v>1</v>
       </c>
       <c r="H5" s="13"/>
@@ -1368,21 +1353,21 @@
         <v>2</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="E6" s="26">
+        <v>196</v>
+      </c>
+      <c r="E6" s="24">
         <v>150</v>
       </c>
-      <c r="F6" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="G6" s="28">
+      <c r="F6" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="G6" s="26">
         <v>1</v>
       </c>
       <c r="H6" s="13"/>
@@ -1392,10 +1377,10 @@
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="15"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
@@ -1403,10 +1388,10 @@
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="15"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
     </row>
@@ -1420,20 +1405,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="20" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="21" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="22" width="51.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="22" width="36.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="22" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="18" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="19" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="20" width="35.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="42.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="20" width="36.005" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="20" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="20" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="18" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="18" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="18.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
@@ -1449,20 +1435,23 @@
       <c r="D1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="9" t="s">
         <v>31</v>
       </c>
@@ -1476,19 +1465,22 @@
         <v>33</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="9" t="s">
         <v>35</v>
       </c>
@@ -1504,40 +1496,46 @@
       <c r="E3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>40</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+      <c r="I3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>43</v>
-      </c>
       <c r="E4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="37.5">
@@ -1545,1468 +1543,1631 @@
         <v>1</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="E5" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="13"/>
+      <c r="H5" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="53.25">
       <c r="A6" s="13">
         <v>2</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="13" t="s">
         <v>54</v>
       </c>
+      <c r="E6" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>49</v>
+      </c>
       <c r="G6" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="13"/>
+        <v>55</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="69">
       <c r="A7" s="13">
         <v>3</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="13">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="G7" s="13">
         <v>1</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="13">
+        <v>1</v>
+      </c>
+      <c r="I7" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="53.25">
       <c r="A8" s="13">
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="53.25">
       <c r="A9" s="13">
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="37.5">
       <c r="A10" s="13">
         <v>6</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="37.5">
       <c r="A11" s="13">
         <v>7</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="6"/>
+        <v>70</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="37.5">
       <c r="A12" s="13">
         <v>8</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="37.5">
       <c r="A13" s="13">
         <v>9</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="6"/>
+        <v>76</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="100.5">
       <c r="A14" s="13">
         <v>10</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="6"/>
+        <v>79</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="53.25">
       <c r="A15" s="13">
         <v>11</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="6"/>
+        <v>82</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="37.5">
       <c r="A16" s="13">
         <v>12</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="6"/>
+        <v>85</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="37.5">
       <c r="A17" s="13">
         <v>13</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="6"/>
+        <v>88</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
       <c r="A18" s="13">
         <v>14</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="6"/>
+        <v>91</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
       <c r="A19" s="13">
         <v>15</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="6"/>
+        <v>94</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
       <c r="A20" s="13">
         <v>16</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
       <c r="A21" s="13">
         <v>17</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
       <c r="A22" s="13">
         <v>18</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="6"/>
+        <v>103</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
       <c r="A23" s="13">
         <v>19</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
       <c r="A24" s="13">
         <v>20</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="6"/>
+        <v>109</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
       <c r="A25" s="13">
         <v>21</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="6"/>
+        <v>112</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
       <c r="A26" s="13">
         <v>22</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="6"/>
+        <v>115</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="15"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
       <c r="A27" s="13">
         <v>23</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="6"/>
+        <v>118</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
       <c r="A28" s="13">
         <v>24</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="6"/>
+        <v>121</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="15"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
       <c r="A29" s="13">
         <v>25</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" s="15"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
       <c r="A30" s="13">
         <v>26</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="6"/>
+        <v>127</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" s="15"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
       <c r="A31" s="13">
         <v>27</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="6"/>
+        <v>130</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F31" s="15"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
       <c r="A32" s="13">
         <v>28</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="6"/>
+        <v>133</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F32" s="15"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
       <c r="A33" s="13">
         <v>29</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="6"/>
+        <v>136</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F33" s="15"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="13">
         <v>30</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="6"/>
+        <v>139</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F34" s="15"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
       <c r="A35" s="13">
         <v>31</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="6"/>
+        <v>140</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
       <c r="A36" s="13">
         <v>32</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="6"/>
+        <v>141</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
       <c r="A37" s="13">
         <v>33</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="6"/>
+        <v>142</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
       <c r="A38" s="13">
         <v>34</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="6"/>
+        <v>143</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
       <c r="A39" s="13">
         <v>35</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="6"/>
+        <v>144</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
       <c r="A40" s="13">
         <v>36</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="6"/>
+        <v>145</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
       <c r="A41" s="13">
         <v>37</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="6"/>
+        <v>146</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
       <c r="A42" s="13">
         <v>38</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="6"/>
+        <v>147</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
       <c r="A43" s="13">
         <v>39</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="6"/>
+        <v>148</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
       <c r="A44" s="13">
         <v>40</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="6"/>
+        <v>149</v>
+      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
       <c r="A45" s="13">
         <v>41</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="6"/>
+        <v>150</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
       <c r="A46" s="13">
         <v>42</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="6"/>
+        <v>151</v>
+      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
       <c r="A47" s="13">
         <v>43</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="6"/>
+        <v>152</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
       <c r="A48" s="13">
         <v>44</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="6"/>
+        <v>153</v>
+      </c>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
       <c r="A49" s="13">
         <v>45</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="6"/>
+        <v>154</v>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
       <c r="A50" s="13">
         <v>46</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="6"/>
+        <v>155</v>
+      </c>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
       <c r="A51" s="13">
         <v>47</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="6"/>
+        <v>156</v>
+      </c>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
       <c r="A52" s="13">
         <v>48</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="6"/>
+        <v>157</v>
+      </c>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
       <c r="A53" s="13">
         <v>49</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="6"/>
+        <v>158</v>
+      </c>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
       <c r="A54" s="13">
         <v>50</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="6"/>
+        <v>159</v>
+      </c>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
       <c r="A55" s="13">
         <v>51</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="6"/>
+        <v>160</v>
+      </c>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
       <c r="A56" s="13">
         <v>52</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="6"/>
+        <v>161</v>
+      </c>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
       <c r="A57" s="13">
         <v>53</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="6"/>
+        <v>162</v>
+      </c>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
       <c r="A58" s="13">
         <v>54</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="6"/>
+        <v>163</v>
+      </c>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
       <c r="A59" s="13">
         <v>55</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="6"/>
+        <v>164</v>
+      </c>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
       <c r="A60" s="13">
         <v>56</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="6"/>
+        <v>165</v>
+      </c>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
       <c r="A61" s="13">
         <v>57</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="6"/>
+        <v>166</v>
+      </c>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
       <c r="A62" s="13">
         <v>58</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="6"/>
+        <v>167</v>
+      </c>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
       <c r="A63" s="13">
         <v>59</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="6"/>
+        <v>168</v>
+      </c>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
       <c r="A64" s="13">
         <v>60</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="6"/>
+        <v>169</v>
+      </c>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
       <c r="A65" s="13">
         <v>61</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="6"/>
+        <v>170</v>
+      </c>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
       <c r="A66" s="13">
         <v>62</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="6"/>
+        <v>171</v>
+      </c>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
       <c r="A67" s="13">
         <v>63</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="6"/>
+        <v>172</v>
+      </c>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
       <c r="A68" s="13">
         <v>64</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="6"/>
+        <v>173</v>
+      </c>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
       <c r="A69" s="13">
         <v>65</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="6"/>
+        <v>174</v>
+      </c>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
       <c r="A70" s="13">
         <v>66</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="6"/>
+        <v>175</v>
+      </c>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
       <c r="A71" s="13">
         <v>67</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="6"/>
+        <v>176</v>
+      </c>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
       <c r="A72" s="13">
         <v>68</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="6"/>
+        <v>177</v>
+      </c>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
       <c r="A73" s="13">
         <v>69</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="6"/>
+        <v>178</v>
+      </c>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
       <c r="A74" s="13">
         <v>70</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="6"/>
+        <v>179</v>
+      </c>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
       <c r="A75" s="13">
         <v>71</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="6"/>
+        <v>180</v>
+      </c>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
       <c r="A76" s="13">
         <v>72</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="6"/>
+        <v>181</v>
+      </c>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
       <c r="A77" s="13">
         <v>73</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="6"/>
+        <v>182</v>
+      </c>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
       <c r="A78" s="13">
         <v>74</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="6"/>
+        <v>183</v>
+      </c>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
       <c r="A79" s="13">
         <v>75</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="6"/>
+        <v>184</v>
+      </c>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
-      <c r="A80" s="19"/>
+      <c r="A80" s="13"/>
       <c r="B80" s="13"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="6"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
-      <c r="A81" s="19"/>
+      <c r="A81" s="13"/>
       <c r="B81" s="13"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="6"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
-      <c r="A82" s="19"/>
+      <c r="A82" s="13"/>
       <c r="B82" s="13"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="6"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
-      <c r="A83" s="19"/>
+      <c r="A83" s="13"/>
       <c r="B83" s="13"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
-      <c r="H83" s="6"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
-      <c r="A84" s="19"/>
+      <c r="A84" s="13"/>
       <c r="B84" s="13"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="19"/>
-      <c r="H84" s="6"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
-      <c r="A85" s="19"/>
+      <c r="A85" s="13"/>
       <c r="B85" s="13"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="19"/>
-      <c r="H85" s="6"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
-      <c r="A86" s="19"/>
+      <c r="A86" s="13"/>
       <c r="B86" s="13"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="6"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
-      <c r="A87" s="19"/>
+      <c r="A87" s="13"/>
       <c r="B87" s="13"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="6"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
-      <c r="A88" s="19"/>
+      <c r="A88" s="13"/>
       <c r="B88" s="13"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="6"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
-      <c r="A89" s="19"/>
+      <c r="A89" s="13"/>
       <c r="B89" s="13"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="6"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
-      <c r="A90" s="19"/>
+      <c r="A90" s="13"/>
       <c r="B90" s="13"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="19"/>
-      <c r="H90" s="6"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
-      <c r="A91" s="19"/>
+      <c r="A91" s="13"/>
       <c r="B91" s="13"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="19"/>
-      <c r="H91" s="6"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
-      <c r="A92" s="19"/>
+      <c r="A92" s="13"/>
       <c r="B92" s="13"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="19"/>
-      <c r="G92" s="19"/>
-      <c r="H92" s="6"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
-      <c r="A93" s="19"/>
+      <c r="A93" s="13"/>
       <c r="B93" s="13"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="19"/>
-      <c r="H93" s="6"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
-      <c r="A94" s="19"/>
+      <c r="A94" s="13"/>
       <c r="B94" s="13"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="19"/>
-      <c r="H94" s="6"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
-      <c r="A95" s="19"/>
+      <c r="A95" s="13"/>
       <c r="B95" s="13"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="19"/>
-      <c r="H95" s="6"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
-      <c r="A96" s="19"/>
+      <c r="A96" s="13"/>
       <c r="B96" s="13"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="19"/>
-      <c r="G96" s="19"/>
-      <c r="H96" s="6"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
-      <c r="A97" s="19"/>
+      <c r="A97" s="13"/>
       <c r="B97" s="13"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="6"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
-      <c r="A98" s="19"/>
+      <c r="A98" s="13"/>
       <c r="B98" s="13"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="19"/>
-      <c r="G98" s="19"/>
-      <c r="H98" s="6"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
-      <c r="A99" s="19"/>
+      <c r="A99" s="13"/>
       <c r="B99" s="13"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="19"/>
-      <c r="H99" s="6"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
-      <c r="A100" s="19"/>
+      <c r="A100" s="13"/>
       <c r="B100" s="13"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="18"/>
-      <c r="F100" s="19"/>
-      <c r="G100" s="19"/>
-      <c r="H100" s="6"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
-      <c r="A101" s="19"/>
+      <c r="A101" s="13"/>
       <c r="B101" s="13"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="19"/>
-      <c r="G101" s="19"/>
-      <c r="H101" s="6"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
-      <c r="A102" s="19"/>
+      <c r="A102" s="13"/>
       <c r="B102" s="13"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="18"/>
-      <c r="F102" s="19"/>
-      <c r="G102" s="19"/>
-      <c r="H102" s="6"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
-      <c r="A103" s="19"/>
+      <c r="A103" s="13"/>
       <c r="B103" s="13"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="19"/>
-      <c r="G103" s="19"/>
-      <c r="H103" s="6"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="13"/>
+      <c r="I103" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
-      <c r="A104" s="19"/>
+      <c r="A104" s="13"/>
       <c r="B104" s="13"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="18"/>
-      <c r="E104" s="18"/>
-      <c r="F104" s="19"/>
-      <c r="G104" s="19"/>
-      <c r="H104" s="6"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="13"/>
+      <c r="I104" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
-      <c r="A105" s="19"/>
+      <c r="A105" s="13"/>
       <c r="B105" s="13"/>
-      <c r="C105" s="18"/>
-      <c r="D105" s="18"/>
-      <c r="E105" s="18"/>
-      <c r="F105" s="19"/>
-      <c r="G105" s="19"/>
-      <c r="H105" s="6"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
-      <c r="A106" s="19"/>
+      <c r="A106" s="13"/>
       <c r="B106" s="13"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18"/>
-      <c r="F106" s="19"/>
-      <c r="G106" s="19"/>
-      <c r="H106" s="6"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
-      <c r="A107" s="19"/>
+      <c r="A107" s="13"/>
       <c r="B107" s="13"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="18"/>
-      <c r="E107" s="18"/>
-      <c r="F107" s="19"/>
-      <c r="G107" s="19"/>
-      <c r="H107" s="6"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
